--- a/gantt_sample.xlsx
+++ b/gantt_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pekep\OneDrive\Project\Python\TaskManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/TaskManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D669E4F-DA57-48D9-82DD-8600C9DBBC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0D669E4F-DA57-48D9-82DD-8600C9DBBC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF0FB1AD-05A9-4D77-AB04-2466C5A2ED3A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="2258" windowWidth="12038" windowHeight="11047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>46027</v>
+        <v>46023</v>
       </c>
       <c r="D2" s="3">
         <v>46031</v>
